--- a/src/main/resources/templates/excel/orderList.xlsx
+++ b/src/main/resources/templates/excel/orderList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chals/Source/wb-partner-server/src/main/resources/templates/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157B3875-16C2-2A40-90D2-A4355699A80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229345CB-A9B3-BE40-A462-A3AB7AFEE592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12060" windowWidth="28800" windowHeight="17440" xr2:uid="{46F75420-F5B2-8D48-85D8-0542E3B4EA91}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17440" xr2:uid="{46F75420-F5B2-8D48-85D8-0542E3B4EA91}"/>
   </bookViews>
   <sheets>
     <sheet name="주문" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>상품명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -99,6 +99,22 @@
   </si>
   <si>
     <t>주문메모</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문상태</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -496,71 +512,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15EEE38-170B-454C-A4EF-495FF51E7B93}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
-    <col min="14" max="15" width="40.7109375" customWidth="1"/>
-    <col min="16" max="16" width="100.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="18" max="19" width="40.7109375" customWidth="1"/>
+    <col min="20" max="20" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
     </row>

--- a/src/main/resources/templates/excel/orderList.xlsx
+++ b/src/main/resources/templates/excel/orderList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chals/Source/wb-partner-server/src/main/resources/templates/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229345CB-A9B3-BE40-A462-A3AB7AFEE592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D047D6F-E0E8-8C48-B8AA-79DC323F57C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17440" xr2:uid="{46F75420-F5B2-8D48-85D8-0542E3B4EA91}"/>
   </bookViews>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15EEE38-170B-454C-A4EF-495FF51E7B93}">
   <dimension ref="A1:T1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -563,10 +563,10 @@
         <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>8</v>

--- a/src/main/resources/templates/excel/orderList.xlsx
+++ b/src/main/resources/templates/excel/orderList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chals/Source/wb-partner-server/src/main/resources/templates/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chals/wrightbrothers/wb-partner-server/src/main/resources/templates/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D047D6F-E0E8-8C48-B8AA-79DC323F57C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AB7FF6-8460-0F40-9E47-E4C6150824E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17440" xr2:uid="{46F75420-F5B2-8D48-85D8-0542E3B4EA91}"/>
+    <workbookView xWindow="1260" yWindow="760" windowWidth="28800" windowHeight="17180" xr2:uid="{46F75420-F5B2-8D48-85D8-0542E3B4EA91}"/>
   </bookViews>
   <sheets>
     <sheet name="주문" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>상품명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -115,6 +115,26 @@
   </si>
   <si>
     <t>주문상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매대금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>렌탈여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수령자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대전화</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +236,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -504,7 +524,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -512,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15EEE38-170B-454C-A4EF-495FF51E7B93}">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -524,14 +544,16 @@
     <col min="5" max="6" width="50.7109375" customWidth="1"/>
     <col min="7" max="7" width="30.7109375" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="12.7109375" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" customWidth="1"/>
-    <col min="18" max="19" width="40.7109375" customWidth="1"/>
-    <col min="20" max="20" width="100.7109375" customWidth="1"/>
+    <col min="10" max="16" width="12.7109375" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" customWidth="1"/>
+    <col min="23" max="24" width="40.7109375" customWidth="1"/>
+    <col min="25" max="25" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -566,30 +588,45 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
